--- a/biology/Botanique/Liste_des_forêts_en_Algérie/Liste_des_forêts_en_Algérie.xlsx
+++ b/biology/Botanique/Liste_des_forêts_en_Algérie/Liste_des_forêts_en_Algérie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_for%C3%AAts_en_Alg%C3%A9rie</t>
+          <t>Liste_des_forêts_en_Algérie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Algérie compte des centaines de forêts réparties sur les wilayas du pays, qui relèvent du Ministère de l'Agriculture et du Développement Rural.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_for%C3%AAts_en_Alg%C3%A9rie</t>
+          <t>Liste_des_forêts_en_Algérie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,35 +523,282 @@
           <t>Les forêts par wilaya</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(d'ouest en est et du nord au sud)
-Wilaya de Tlemcen
-La wilaya de Tlemcen comprend les forêts suivantes[1] :  
-forêt de Hafir-Zarrifet[2] ;
-forêt d'Ifri[3] ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_en_Algérie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_en_Alg%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Les forêts par wilaya</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Wilaya de Tlemcen</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La wilaya de Tlemcen comprend les forêts suivantes :  
+forêt de Hafir-Zarrifet ;
+forêt d'Ifri ;
 forêt de Lalla Setti ;
 forêts de Béni Ouarsous.
-Wilaya de Aïn Témouchent
-La wilaya de Aïn Témouchent comprend les forêts suivantes :
-forêt de Khelf Semane dans la commune d’Aghlal[4].
-Wilaya d'Oran
-La wilaya d'Oran comprend les forêts suivantes :
-forêt de M'Sila[5] ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_en_Algérie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_en_Alg%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les forêts par wilaya</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Wilaya de Aïn Témouchent</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La wilaya de Aïn Témouchent comprend les forêts suivantes :
+forêt de Khelf Semane dans la commune d’Aghlal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_en_Algérie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_en_Alg%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les forêts par wilaya</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Wilaya d'Oran</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La wilaya d'Oran comprend les forêts suivantes :
+forêt de M'Sila ;
 forêt de Terziza, dans la commune de Misserghin.
-Wilaya de Mostaganem
-La wilaya de Mostaganem comprend les forêts suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_en_Algérie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_en_Alg%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les forêts par wilaya</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Wilaya de Mostaganem</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La wilaya de Mostaganem comprend les forêts suivantes :
 forêt de Chouachi près d'Hadjadj.
-Wilaya de Chlef
-La wilaya de Chlef comprend les forêts suivantes[6] :
-forêt de Bissa[7].
-Wilaya de Tipaza
-La wilaya de Tipaza comprend les forêts suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_en_Algérie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_en_Alg%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les forêts par wilaya</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Wilaya de Chlef</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La wilaya de Chlef comprend les forêts suivantes :
+forêt de Bissa.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_en_Algérie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_en_Alg%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les forêts par wilaya</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Wilaya de Tipaza</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La wilaya de Tipaza comprend les forêts suivantes :
 forêt Affaïne ;
 forêt de Taourira ;
 forêt des Beni Habiba.
-Wilaya d'Alger
-La wilaya d'Alger comprend plusieurs forêts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_en_Algérie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_en_Alg%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les forêts par wilaya</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Wilaya d'Alger</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La wilaya d'Alger comprend plusieurs forêts.
 forêt d'Aïn Taya
 forêt des Annassers
 forêt de Bachdjerrah
@@ -563,8 +822,43 @@
 forêt de Saoula
 forêt de Sidi Fredj
 forêt de Zéralda
-Wilaya de Boumerdès
-La wilaya de Boumerdès comprend plusieurs forêts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_en_Algérie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_en_Alg%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les forêts par wilaya</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Wilaya de Boumerdès</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La wilaya de Boumerdès comprend plusieurs forêts.
 forêt du Sahel entre Zemmouri, Leghata et Djinet ;
 forêt d'Assouf à Dellys ;
 forêt de Boudouaou à Boudouaou ;
@@ -573,35 +867,313 @@
 forêt du Sahel à Sidi Daoud ;
 forêt de Bougherbi à Dellys ;
 forêt de Mizrana à Afir.
-Wilaya de Tizi Ouzou
-La wilaya de Tizi Ouzou comprend les forêts suivantes :
-forêt de Beni Ghobri[8] près de Yakouren.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_en_Algérie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_en_Alg%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Les forêts par wilaya</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Wilaya de Tizi Ouzou</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>La wilaya de Tizi Ouzou comprend les forêts suivantes :
+forêt de Beni Ghobri près de Yakouren.
 Forêt d'Amejoud
-Forêt de Baloua
-Wilaya de Béjaia
-La wilaya de Béjaïa comprend les forêts suivantes[9] :
+Forêt de Baloua</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_en_Algérie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_en_Alg%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Les forêts par wilaya</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Wilaya de Béjaia</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La wilaya de Béjaïa comprend les forêts suivantes :
 forêt d’Akfadou.
-Wilaya de Jijel
-La wilaya de Jijel comprend les forêts suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_en_Algérie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_en_Alg%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Les forêts par wilaya</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Wilaya de Jijel</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La wilaya de Jijel comprend les forêts suivantes :
 forêts du parc national de Taza.
-Wilaya de Skikda
-La wilaya de Skikda comprend les forêts suivantes :
-forêts des Senhadja-Gherbès[10],[11] ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_en_Algérie</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_en_Alg%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Les forêts par wilaya</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Wilaya de Skikda</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La wilaya de Skikda comprend les forêts suivantes :
+forêts des Senhadja-Gherbès, ;
 forêt de Tsmara.
-Wilaya d'Annaba
-La wilaya d'Annaba comprend les forêts suivantes :
-forêts du parc national d'Enought[12].
-Wilaya d'El Tarf
-La wilaya d'El Tarf comprend plusieurs forêts. Elles sont soumises au risque de feux de forêts[13]
-Wilaya de Djelfa
-La wilaya de Djelfa comprend les forêts suivantes : 
-forêt de Senalb, 62 172 ha[14] ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_en_Algérie</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_en_Alg%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Les forêts par wilaya</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Wilaya d'Annaba</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La wilaya d'Annaba comprend les forêts suivantes :
+forêts du parc national d'Enought.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_en_Algérie</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_en_Alg%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Les forêts par wilaya</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Wilaya d'El Tarf</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La wilaya d'El Tarf comprend plusieurs forêts. Elles sont soumises au risque de feux de forêts
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_en_Algérie</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_en_Alg%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Les forêts par wilaya</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Wilaya de Djelfa</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>La wilaya de Djelfa comprend les forêts suivantes : 
+forêt de Senalb, 62 172 ha ;
 forêt des Sahary Guebli, 31 800 ha ;
 forêt des Sahary Dahri, 29 151 ha ;
 forêt des Djellal, 7 374 ha ;
-forêt Boubheir takouka, 7 253 ha.
-Wilaya de Khenchela
-La wilaya de Khenchela comprend les forêts suivantes :
+forêt Boubheir takouka, 7 253 ha.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_forêts_en_Algérie</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_for%C3%AAts_en_Alg%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Les forêts par wilaya</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Wilaya de Khenchela</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La wilaya de Khenchela comprend les forêts suivantes :
 forêt de Bouhmama.
 </t>
         </is>
